--- a/Data/uniquecountries.xlsx
+++ b/Data/uniquecountries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timodaehler/Desktop/COVID19-DOMINANCE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D3B896-363D-BD42-BE37-537BDEF8AC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5804BAB2-9134-484D-B541-FA02718EBD15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="50">
   <si>
     <t>Country</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Stand-By Arrangement</t>
+  </si>
+  <si>
+    <t>Remittances share of GDP</t>
+  </si>
+  <si>
+    <t>GDP 2019 in USD mn</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A35" sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
@@ -769,10 +775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D528D6-8352-B846-B293-E6EC36E8E255}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -782,7 +788,7 @@
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,8 +816,17 @@
       <c r="I1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -837,8 +852,20 @@
         <v>0</v>
       </c>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0.11901150304915327</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>449663.44695407274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -864,8 +891,20 @@
         <v>0</v>
       </c>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2.6539671198903934</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>48047.647058823524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -891,8 +930,20 @@
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>38574.069148936171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -918,8 +969,20 @@
         <v>0</v>
       </c>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>0.17912843429392222</v>
+      </c>
+      <c r="U5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>1839758.0407656231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -953,8 +1016,20 @@
       <c r="K6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>2.3288135655626954E-2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>282318.1597446496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -986,8 +1061,20 @@
       <c r="K7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>0.1275495853566754</v>
+      </c>
+      <c r="U7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>14342902.842915868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1102,20 @@
       <c r="I8" s="3">
         <v>43952</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>2.0907512630878191</v>
+      </c>
+      <c r="U8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <v>323802.80810824595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1050,8 +1149,20 @@
       <c r="K9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>8.3431433376404325</v>
+      </c>
+      <c r="U9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>88941.29825772153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1097,8 +1208,20 @@
       <c r="Q10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>8.8369667549928206</v>
+      </c>
+      <c r="U10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <v>303175.12759752106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1132,8 +1255,20 @@
       <c r="K11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>5.2558534704609876</v>
+      </c>
+      <c r="U11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>66983.634223942965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1294,20 @@
         <v>0</v>
       </c>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <v>2.7133969913079379</v>
+      </c>
+      <c r="U12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <v>160967.15750361246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1186,8 +1333,20 @@
         <v>0</v>
       </c>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13">
+        <v>1.0423955647037753</v>
+      </c>
+      <c r="U13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <v>1119190.780752796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1213,8 +1372,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14">
+        <v>0.28090092686945284</v>
+      </c>
+      <c r="U14" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <v>180161.74118014678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1240,8 +1411,20 @@
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <v>0.45479741390187434</v>
+      </c>
+      <c r="U15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <v>364701.51778784423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1267,8 +1450,20 @@
         <v>0</v>
       </c>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16">
+        <v>3.0699327144830026</v>
+      </c>
+      <c r="U16" t="s">
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <v>1258286.7171245252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1302,8 +1497,20 @@
       <c r="K17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17">
+        <v>5.3111816889662533</v>
+      </c>
+      <c r="U17" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <v>448120.42885876924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1329,8 +1536,20 @@
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18">
+        <v>5.067567631081081E-2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <v>76983.094928478546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1364,8 +1583,20 @@
       <c r="K19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19">
+        <v>0.86953173764386049</v>
+      </c>
+      <c r="U19" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <v>66800.800000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1630,20 @@
       <c r="K20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20">
+        <v>1.4661796687184638</v>
+      </c>
+      <c r="U20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <v>226848.05081952471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1426,8 +1669,20 @@
         <v>0</v>
       </c>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <v>9.3331791886873106</v>
+      </c>
+      <c r="U21" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <v>376795.50867967587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1453,8 +1708,20 @@
         <v>0</v>
       </c>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22">
+        <v>1.0971615302196207</v>
+      </c>
+      <c r="U22" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <v>592164.40068760747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1480,8 +1747,20 @@
         <v>0</v>
       </c>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23">
+        <v>0.31430766212899663</v>
+      </c>
+      <c r="U23" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <v>183466.20879120877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1507,8 +1786,20 @@
         <v>0</v>
       </c>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24">
+        <v>3.0760055168932738</v>
+      </c>
+      <c r="U24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <v>250077.44401708397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1534,8 +1825,20 @@
         <v>0</v>
       </c>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25">
+        <v>0.61371985058625433</v>
+      </c>
+      <c r="U25" t="s">
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <v>1699876.5788713531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1561,8 +1864,20 @@
         <v>0</v>
       </c>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26">
+        <v>4.212399778378071E-2</v>
+      </c>
+      <c r="U26" t="s">
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <v>792966.83816165861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1588,8 +1903,20 @@
         <v>0</v>
       </c>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27">
+        <v>0.2532666866087307</v>
+      </c>
+      <c r="U27" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <v>351431.64924143854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1615,8 +1942,20 @@
         <v>0</v>
       </c>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28">
+        <v>8.0315788848075567</v>
+      </c>
+      <c r="U28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <v>84008.78375606802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1642,8 +1981,20 @@
         <v>0</v>
       </c>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29">
+        <v>0.10736842909421745</v>
+      </c>
+      <c r="U29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <v>754411.70820261561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1677,8 +2028,20 @@
       <c r="K30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30">
+        <v>10.351079031561701</v>
+      </c>
+      <c r="U30" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <v>153781.06911814777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1704,8 +2067,20 @@
         <v>0</v>
       </c>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <v>421142.26793765015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1731,8 +2106,20 @@
         <v>0</v>
       </c>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32">
+        <v>0.18260438120264988</v>
+      </c>
+      <c r="U32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <v>56045.912952342049</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1758,8 +2145,20 @@
         <v>0</v>
       </c>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33">
+        <v>2.8914074122186002</v>
+      </c>
+      <c r="U33" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <v>2875142.3148118476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1785,8 +2184,20 @@
         <v>0</v>
       </c>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34">
+        <v>1.3017154429885018</v>
+      </c>
+      <c r="U34" t="s">
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <v>543649.97616562957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1812,6 +2223,18 @@
         <v>0</v>
       </c>
       <c r="I35" s="3"/>
+      <c r="R35" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35">
+        <v>1.5657189393178692</v>
+      </c>
+      <c r="U35" t="s">
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <v>246489.24549488164</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
